--- a/Proj-B/control_signals_template.xlsx
+++ b/Proj-B/control_signals_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\cpre_381\CPRE381\Proj-B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E1DEEE-9577-41B7-BEAE-F3CE94B519D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203D8D05-F686-494A-A8FE-C43FF94F35FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>Instruction</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,9 +379,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,7 +706,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,34 +724,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -964,7 +964,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
@@ -991,7 +993,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1251,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1453,7 +1457,9 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
